--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,26</t>
+          <t>3,91; 13,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 18,2</t>
+          <t>7,26; 17,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,04</t>
+          <t>3,56; 12,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 12,93</t>
+          <t>2,38; 12,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 22,69</t>
+          <t>10,69; 22,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 13,63</t>
+          <t>4,49; 13,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 16,3</t>
+          <t>4,14; 16,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,0</t>
+          <t>4,21; 11,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 18,07</t>
+          <t>10,32; 17,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,03</t>
+          <t>5,0; 10,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,04</t>
+          <t>3,98; 12,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,56</t>
+          <t>5,72; 12,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,73</t>
+          <t>6,56; 14,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,4</t>
+          <t>5,7; 12,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,23</t>
+          <t>8,43; 17,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,09</t>
+          <t>3,48; 9,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,19</t>
+          <t>5,95; 13,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 15,42</t>
+          <t>7,37; 15,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,95</t>
+          <t>3,44; 10,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,66</t>
+          <t>5,14; 9,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,43</t>
+          <t>7,01; 12,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,78</t>
+          <t>7,3; 12,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,65</t>
+          <t>7,0; 12,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,92</t>
+          <t>7,2; 17,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,35</t>
+          <t>5,79; 15,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,6</t>
+          <t>1,62; 7,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,15</t>
+          <t>2,36; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,23</t>
+          <t>2,73; 11,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 14,94</t>
+          <t>5,1; 15,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,84</t>
+          <t>5,47; 13,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,66</t>
+          <t>4,05; 10,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,67</t>
+          <t>6,23; 13,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,36</t>
+          <t>6,61; 13,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,42</t>
+          <t>4,24; 9,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,79</t>
+          <t>3,78; 8,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,39</t>
+          <t>2,46; 7,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,58</t>
+          <t>2,65; 9,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,15</t>
+          <t>2,88; 10,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,46</t>
+          <t>5,34; 11,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,85</t>
+          <t>4,48; 11,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,84</t>
+          <t>3,75; 11,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,3</t>
+          <t>2,76; 9,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,51</t>
+          <t>2,87; 7,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,11</t>
+          <t>4,11; 8,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 9,56</t>
+          <t>3,95; 9,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,3</t>
+          <t>3,56; 8,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,78</t>
+          <t>4,71; 8,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,1</t>
+          <t>6,37; 9,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,48</t>
+          <t>7,21; 11,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,62</t>
+          <t>5,1; 8,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,83</t>
+          <t>6,14; 9,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,65</t>
+          <t>4,91; 8,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,83</t>
+          <t>8,03; 12,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,59</t>
+          <t>6,77; 10,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,81</t>
+          <t>4,6; 7,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,7</t>
+          <t>5,97; 8,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,38</t>
+          <t>8,19; 11,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,95</t>
+          <t>6,28; 9,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,27</t>
+          <t>6,0; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>7,77%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>11,86%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>7,02%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,45</t>
+          <t>2,81; 12,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 17,87</t>
+          <t>10,29; 22,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,2</t>
+          <t>4,43; 13,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,92</t>
+          <t>4,27; 16,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,41</t>
+          <t>3,84; 13,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 22,39</t>
+          <t>7,5; 17,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,68</t>
+          <t>3,6; 13,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 16,01</t>
+          <t>2,67; 13,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,3</t>
+          <t>4,36; 11,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,86</t>
+          <t>10,13; 17,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,97</t>
+          <t>5,22; 11,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,35</t>
+          <t>4,27; 12,01</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>9,78%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>8,64%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,05%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,85%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 12,13</t>
+          <t>3,65; 9,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 14,4</t>
+          <t>6,12; 13,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,33</t>
+          <t>7,33; 15,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 17,12</t>
+          <t>3,89; 10,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,27</t>
+          <t>5,85; 12,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,15</t>
+          <t>6,52; 14,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,12</t>
+          <t>5,7; 12,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,15</t>
+          <t>9,09; 18,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,61</t>
+          <t>5,32; 9,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,38</t>
+          <t>6,99; 12,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,46</t>
+          <t>7,32; 12,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 12,5</t>
+          <t>7,36; 13,09</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>11,74%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>9,76%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>3,74%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,54</t>
+          <t>2,43; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 15,25</t>
+          <t>5,03; 15,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,53</t>
+          <t>5,36; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,81</t>
+          <t>4,26; 10,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,06</t>
+          <t>7,25; 17,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 15,38</t>
+          <t>5,66; 15,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,81</t>
+          <t>1,67; 7,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,42</t>
+          <t>2,32; 7,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,23</t>
+          <t>6,24; 13,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,7</t>
+          <t>6,2; 13,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,24</t>
+          <t>4,2; 9,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,05</t>
+          <t>3,65; 7,84</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,69%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>5,52%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>5,96%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,95</t>
+          <t>4,78; 11,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,36</t>
+          <t>4,1; 12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,19</t>
+          <t>2,73; 9,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,92</t>
+          <t>2,62; 7,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,64</t>
+          <t>2,51; 8,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 11,8</t>
+          <t>2,84; 9,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 9,63</t>
+          <t>2,94; 10,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,45</t>
+          <t>5,59; 12,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,84</t>
+          <t>4,36; 8,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,21</t>
+          <t>4,21; 9,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,45</t>
+          <t>3,58; 8,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,74</t>
+          <t>4,55; 8,85</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,97%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>9,17%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>6,62%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,98</t>
+          <t>4,96; 8,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,37</t>
+          <t>7,93; 12,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,47</t>
+          <t>6,55; 10,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,81</t>
+          <t>4,46; 7,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,51</t>
+          <t>6,3; 9,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,55</t>
+          <t>7,17; 11,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,68</t>
+          <t>5,07; 8,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,93</t>
+          <t>6,36; 10,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,71</t>
+          <t>5,97; 8,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 11,37</t>
+          <t>8,28; 11,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,04</t>
+          <t>6,37; 8,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,41</t>
+          <t>5,98; 8,59</t>
         </is>
       </c>
     </row>
